--- a/demo.xlsx
+++ b/demo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nafees\Desktop\Intigsol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nafees\Desktop\office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1242D35-4C23-474D-8799-F012DB8B225F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22EE0E8-DED6-4C79-A0DE-FECC4CDAC627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>Product Name</t>
   </si>
@@ -141,6 +141,12 @@
   <si>
     <t xml:space="preserve">
 </t>
+  </si>
+  <si>
+    <t>Md.Habibul Islam Safin</t>
+  </si>
+  <si>
+    <t>Intigsol developer team</t>
   </si>
 </sst>
 </file>
@@ -1391,7 +1397,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1474,16 +1480,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18" customHeight="1">
+    <row r="4" spans="1:9" ht="25.5" customHeight="1">
       <c r="A4" s="55" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="51"/>
-      <c r="C4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="D4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="F4" s="2" t="s">
         <v>13</v>
       </c>

--- a/demo.xlsx
+++ b/demo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nafees\Desktop\office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22EE0E8-DED6-4C79-A0DE-FECC4CDAC627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA068502-B4AB-4EDD-A539-1D2C05CD8012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Product Name</t>
   </si>
@@ -139,14 +139,10 @@
     <t>TC008</t>
   </si>
   <si>
-    <t xml:space="preserve">
-</t>
-  </si>
-  <si>
     <t>Md.Habibul Islam Safin</t>
   </si>
   <si>
-    <t>Intigsol developer team</t>
+    <t>TC009</t>
   </si>
 </sst>
 </file>
@@ -580,7 +576,40 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="52">
+  <dxfs count="55">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFE0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1118,6 +1147,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFE0000"/>
+      <color rgb="FFFF3300"/>
+      <color rgb="FF00FF00"/>
       <color rgb="FF00CC00"/>
     </mruColors>
   </colors>
@@ -1397,19 +1429,19 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="37.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24" style="1" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="1" customWidth="1"/>
     <col min="9" max="9" width="25" style="1" customWidth="1"/>
     <col min="10" max="10" width="17.28515625" style="1" customWidth="1"/>
     <col min="11" max="16384" width="14.42578125" style="1"/>
@@ -1485,14 +1517,12 @@
         <v>11</v>
       </c>
       <c r="B4" s="51"/>
-      <c r="C4" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="C4" s="5"/>
       <c r="D4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>13</v>
@@ -1550,7 +1580,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="60.6" customHeight="1">
+    <row r="7" spans="1:9" ht="33.75" customHeight="1">
       <c r="A7" s="35" t="s">
         <v>25</v>
       </c>
@@ -1559,16 +1589,14 @@
       <c r="D7" s="36"/>
       <c r="E7" s="14"/>
       <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
+      <c r="G7" s="38"/>
       <c r="H7" s="44"/>
     </row>
-    <row r="8" spans="1:9" ht="25.5">
+    <row r="8" spans="1:9" ht="26.25" customHeight="1">
       <c r="A8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>34</v>
-      </c>
+      <c r="B8" s="14"/>
       <c r="C8" s="15"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
@@ -1576,13 +1604,11 @@
       <c r="G8" s="17"/>
       <c r="H8" s="44"/>
     </row>
-    <row r="9" spans="1:9" ht="25.5">
+    <row r="9" spans="1:9" ht="24" customHeight="1">
       <c r="A9" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>34</v>
-      </c>
+      <c r="B9" s="14"/>
       <c r="C9" s="15"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
@@ -1590,13 +1616,11 @@
       <c r="G9" s="49"/>
       <c r="H9" s="44"/>
     </row>
-    <row r="10" spans="1:9" ht="25.5">
+    <row r="10" spans="1:9" ht="23.25" customHeight="1">
       <c r="A10" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="37" t="s">
-        <v>34</v>
-      </c>
+      <c r="B10" s="37"/>
       <c r="C10" s="46"/>
       <c r="D10" s="36"/>
       <c r="E10" s="37"/>
@@ -1604,13 +1628,11 @@
       <c r="G10" s="38"/>
       <c r="H10" s="44"/>
     </row>
-    <row r="11" spans="1:9" ht="25.5">
+    <row r="11" spans="1:9" ht="25.5" customHeight="1">
       <c r="A11" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="37" t="s">
-        <v>34</v>
-      </c>
+      <c r="B11" s="37"/>
       <c r="C11" s="18"/>
       <c r="D11" s="37"/>
       <c r="E11" s="37"/>
@@ -1618,7 +1640,7 @@
       <c r="G11" s="49"/>
       <c r="H11" s="19"/>
     </row>
-    <row r="12" spans="1:9" ht="24.75" customHeight="1">
+    <row r="12" spans="1:9" ht="23.25" customHeight="1">
       <c r="A12" s="22" t="s">
         <v>30</v>
       </c>
@@ -1630,13 +1652,11 @@
       <c r="G12" s="48"/>
       <c r="H12" s="19"/>
     </row>
-    <row r="13" spans="1:9" ht="25.5">
+    <row r="13" spans="1:9" ht="25.5" customHeight="1">
       <c r="A13" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="37" t="s">
-        <v>34</v>
-      </c>
+      <c r="B13" s="37"/>
       <c r="C13" s="18"/>
       <c r="D13" s="36"/>
       <c r="E13" s="37"/>
@@ -1644,13 +1664,11 @@
       <c r="G13" s="38"/>
       <c r="H13" s="21"/>
     </row>
-    <row r="14" spans="1:9" ht="25.5">
+    <row r="14" spans="1:9" ht="25.5" customHeight="1">
       <c r="A14" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="36" t="s">
-        <v>34</v>
-      </c>
+      <c r="B14" s="36"/>
       <c r="C14" s="24"/>
       <c r="D14" s="37"/>
       <c r="E14" s="36"/>
@@ -1658,8 +1676,10 @@
       <c r="G14" s="48"/>
       <c r="H14" s="25"/>
     </row>
-    <row r="15" spans="1:9" ht="12.75">
-      <c r="A15" s="13"/>
+    <row r="15" spans="1:9" ht="23.25" customHeight="1">
+      <c r="A15" s="13" t="s">
+        <v>35</v>
+      </c>
       <c r="B15" s="16"/>
       <c r="C15" s="18"/>
       <c r="D15" s="14"/>
@@ -2941,185 +2961,196 @@
     <mergeCell ref="A4:B4"/>
   </mergeCells>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="51" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="28" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="29" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="30" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="48" priority="28">
+    <cfRule type="containsBlanks" dxfId="51" priority="31">
       <formula>LEN(TRIM(I2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="47" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="24" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="25" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="26" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="44" priority="24">
+    <cfRule type="containsBlanks" dxfId="47" priority="27">
       <formula>LEN(TRIM(I3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="43" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="20" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="21" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="22" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="40" priority="20">
+    <cfRule type="containsBlanks" dxfId="43" priority="23">
       <formula>LEN(TRIM(G7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="cellIs" dxfId="39" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="16" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="17" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="18" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="36" priority="16">
+    <cfRule type="containsBlanks" dxfId="39" priority="19">
       <formula>LEN(TRIM(G19))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="cellIs" dxfId="35" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="48" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="49" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="50" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="32" priority="48">
+    <cfRule type="containsBlanks" dxfId="35" priority="51">
       <formula>LEN(TRIM(G25))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" dxfId="31" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="44" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="45" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="46" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="28" priority="44">
+    <cfRule type="containsBlanks" dxfId="31" priority="47">
       <formula>LEN(TRIM(G28))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="cellIs" dxfId="27" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="12" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="13" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="14" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="24" priority="12">
+    <cfRule type="containsBlanks" dxfId="27" priority="15">
       <formula>LEN(TRIM(G31))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="cellIs" dxfId="23" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="40" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="41" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="42" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="20" priority="40">
+    <cfRule type="containsBlanks" dxfId="23" priority="43">
       <formula>LEN(TRIM(G34))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G37">
-    <cfRule type="cellIs" dxfId="19" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="36" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="37" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="38" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="16" priority="36">
+    <cfRule type="containsBlanks" dxfId="19" priority="39">
       <formula>LEN(TRIM(G37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G40">
-    <cfRule type="cellIs" dxfId="15" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="32" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="33" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="34" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="12" priority="32">
+    <cfRule type="containsBlanks" dxfId="15" priority="35">
       <formula>LEN(TRIM(G40))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="8" priority="8">
+    <cfRule type="containsBlanks" dxfId="11" priority="11">
       <formula>LEN(TRIM(G43))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="4" priority="4">
+    <cfRule type="containsBlanks" dxfId="7" priority="7">
       <formula>LEN(TRIM(G46))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10 G22 G8 G16 G13">
-    <cfRule type="cellIs" dxfId="3" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="52" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="53" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="54" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="0" priority="52">
+    <cfRule type="containsBlanks" dxfId="3" priority="55">
       <formula>LEN(TRIM(G8))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7:G48">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",G7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",G7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="WARNING">
+      <formula>NOT(ISERROR(SEARCH("WARNING",G7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">

--- a/demo.xlsx
+++ b/demo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nafees\Desktop\office\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\intigsol-office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA068502-B4AB-4EDD-A539-1D2C05CD8012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3300DAEC-8AD6-44A9-9E03-8BFA3DF2D37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,12 +21,14 @@
     <definedName name="verify_package_Design" localSheetId="0">'Test Cases'!#REF!</definedName>
     <definedName name="verify_package_Design">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Product Name</t>
   </si>
@@ -137,9 +139,6 @@
   </si>
   <si>
     <t>TC008</t>
-  </si>
-  <si>
-    <t>Md.Habibul Islam Safin</t>
   </si>
   <si>
     <t>TC009</t>
@@ -1429,7 +1428,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1521,9 +1520,7 @@
       <c r="D4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="E4" s="5"/>
       <c r="F4" s="2" t="s">
         <v>13</v>
       </c>
@@ -1678,7 +1675,7 @@
     </row>
     <row r="15" spans="1:9" ht="23.25" customHeight="1">
       <c r="A15" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" s="16"/>
       <c r="C15" s="18"/>
